--- a/Lab work/Materials lab/perc_crystallinity.xlsx
+++ b/Lab work/Materials lab/perc_crystallinity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/eb1723_ic_ac_uk/Documents/ME2/University computing/Lab work/Materials lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{66022862-5CF1-0648-8381-170F78E29FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9873933-0B61-D540-86E1-4D2ED8C53835}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{66022862-5CF1-0648-8381-170F78E29FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A009F29-854C-44F0-8EED-EE2C6D44E690}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16580" xr2:uid="{826CB3DA-5A1A-6A44-90D5-8BB8613ECB7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{826CB3DA-5A1A-6A44-90D5-8BB8613ECB7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,7 +280,7 @@
                   <c:v>-80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-100</c:v>
+                  <c:v>-195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,12 +1429,12 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>100</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>80</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>20</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>70</v>
       </c>
       <c r="C4" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <v>10</v>
@@ -1522,7 +1522,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="4">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -1544,7 +1544,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="21" customHeight="1">
       <c r="A6" s="4">
         <v>-20</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="4">
         <v>-50</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>-80</v>
       </c>
@@ -1608,9 +1608,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
-        <v>-100</v>
+        <v>-195</v>
       </c>
       <c r="B9" s="4">
         <v>100</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1636,7 +1636,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1644,7 +1644,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1652,7 +1652,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1660,7 +1660,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1668,7 +1668,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1676,7 +1676,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1684,7 +1684,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1692,7 +1692,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
